--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:12:11+00:00</t>
+    <t>2022-07-25T14:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:21:42+00:00</t>
+    <t>2022-07-25T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:41:10+00:00</t>
+    <t>2022-08-01T09:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:41:51+00:00</t>
+    <t>2022-08-01T09:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:45:26+00:00</t>
+    <t>2022-08-01T09:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:59:26+00:00</t>
+    <t>2022-08-03T15:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:26:13+00:00</t>
+    <t>2022-08-08T13:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:17:46+00:00</t>
+    <t>2022-08-08T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:24:36+00:00</t>
+    <t>2022-08-09T12:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T12:36:42+00:00</t>
+    <t>2023-03-22T15:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -328,68 +331,70 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -411,58 +416,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-recist-asstimepoint-response-vs.xlsx
+++ b/ValueSet-recist-asstimepoint-response-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
